--- a/output/epop_tables.xlsx
+++ b/output/epop_tables.xlsx
@@ -523,7 +523,7 @@
         <v>0.793661929858747</v>
       </c>
       <c r="C13">
-        <v>565193</v>
+        <v>561058</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>0.79443098780739</v>
       </c>
       <c r="C14">
-        <v>563263</v>
+        <v>559171</v>
       </c>
     </row>
     <row r="15">
@@ -545,7 +545,7 @@
         <v>0.79493994852062</v>
       </c>
       <c r="C15">
-        <v>561039</v>
+        <v>556974</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>0.795435069693593</v>
       </c>
       <c r="C16">
-        <v>558905</v>
+        <v>554873</v>
       </c>
     </row>
     <row r="17">
@@ -567,7 +567,7 @@
         <v>0.795908826249553</v>
       </c>
       <c r="C17">
-        <v>556512</v>
+        <v>552523</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.796244667013656</v>
       </c>
       <c r="C18">
-        <v>553793</v>
+        <v>549836</v>
       </c>
     </row>
     <row r="19">
@@ -589,7 +589,7 @@
         <v>0.796566912261038</v>
       </c>
       <c r="C19">
-        <v>551404</v>
+        <v>547466</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>0.796549808871612</v>
       </c>
       <c r="C20">
-        <v>548929</v>
+        <v>545022</v>
       </c>
     </row>
     <row r="21">
@@ -611,7 +611,7 @@
         <v>0.797092725193506</v>
       </c>
       <c r="C21">
-        <v>547202</v>
+        <v>543317</v>
       </c>
     </row>
     <row r="22">
@@ -622,7 +622,7 @@
         <v>0.797775799439346</v>
       </c>
       <c r="C22">
-        <v>544407</v>
+        <v>540522</v>
       </c>
     </row>
     <row r="23">
@@ -633,7 +633,7 @@
         <v>0.798313904114662</v>
       </c>
       <c r="C23">
-        <v>542011</v>
+        <v>538159</v>
       </c>
     </row>
     <row r="24">
@@ -644,7 +644,7 @@
         <v>0.798921891953316</v>
       </c>
       <c r="C24">
-        <v>539804</v>
+        <v>535969</v>
       </c>
     </row>
     <row r="25">
@@ -655,7 +655,7 @@
         <v>0.799618685762774</v>
       </c>
       <c r="C25">
-        <v>538228</v>
+        <v>534395</v>
       </c>
     </row>
     <row r="26">
@@ -666,7 +666,7 @@
         <v>0.800239523361588</v>
       </c>
       <c r="C26">
-        <v>536457</v>
+        <v>532600</v>
       </c>
     </row>
     <row r="27">
@@ -677,7 +677,7 @@
         <v>0.800744639575383</v>
       </c>
       <c r="C27">
-        <v>535786</v>
+        <v>531899</v>
       </c>
     </row>
     <row r="28">
@@ -688,7 +688,7 @@
         <v>0.800478536945065</v>
       </c>
       <c r="C28">
-        <v>529961</v>
+        <v>526069</v>
       </c>
     </row>
     <row r="29">
@@ -699,7 +699,7 @@
         <v>0.792028368400977</v>
       </c>
       <c r="C29">
-        <v>522026</v>
+        <v>518148</v>
       </c>
     </row>
     <row r="30">
@@ -710,7 +710,7 @@
         <v>0.785012545223331</v>
       </c>
       <c r="C30">
-        <v>513421</v>
+        <v>509585</v>
       </c>
     </row>
     <row r="31">
@@ -721,7 +721,7 @@
         <v>0.779815608661411</v>
       </c>
       <c r="C31">
-        <v>502871</v>
+        <v>499129</v>
       </c>
     </row>
     <row r="32">
@@ -732,7 +732,7 @@
         <v>0.77501903194087</v>
       </c>
       <c r="C32">
-        <v>493849</v>
+        <v>490187</v>
       </c>
     </row>
     <row r="33">
@@ -743,7 +743,7 @@
         <v>0.771038797912394</v>
       </c>
       <c r="C33">
-        <v>485586</v>
+        <v>481984</v>
       </c>
     </row>
     <row r="34">
@@ -754,7 +754,7 @@
         <v>0.766785299909818</v>
       </c>
       <c r="C34">
-        <v>482203</v>
+        <v>478641</v>
       </c>
     </row>
     <row r="35">
@@ -765,7 +765,7 @@
         <v>0.763231356079595</v>
       </c>
       <c r="C35">
-        <v>479892</v>
+        <v>476373</v>
       </c>
     </row>
     <row r="36">
@@ -776,7 +776,7 @@
         <v>0.759639721945749</v>
       </c>
       <c r="C36">
-        <v>477218</v>
+        <v>473759</v>
       </c>
     </row>
     <row r="37">
@@ -787,7 +787,7 @@
         <v>0.75621340530667</v>
       </c>
       <c r="C37">
-        <v>473145</v>
+        <v>469743</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         <v>0.752754153377027</v>
       </c>
       <c r="C38">
-        <v>470679</v>
+        <v>467282</v>
       </c>
     </row>
     <row r="39">
@@ -809,7 +809,7 @@
         <v>0.749541321436637</v>
       </c>
       <c r="C39">
-        <v>467420</v>
+        <v>463986</v>
       </c>
     </row>
     <row r="40">
@@ -820,7 +820,7 @@
         <v>0.747358580604562</v>
       </c>
       <c r="C40">
-        <v>468748</v>
+        <v>465250</v>
       </c>
     </row>
     <row r="41">
@@ -831,7 +831,7 @@
         <v>0.753483196613493</v>
       </c>
       <c r="C41">
-        <v>472822</v>
+        <v>469274</v>
       </c>
     </row>
     <row r="42">
@@ -842,7 +842,7 @@
         <v>0.758268942783233</v>
       </c>
       <c r="C42">
-        <v>477909</v>
+        <v>474301</v>
       </c>
     </row>
     <row r="43">
@@ -853,7 +853,7 @@
         <v>0.761277690754285</v>
       </c>
       <c r="C43">
-        <v>483081</v>
+        <v>479431</v>
       </c>
     </row>
     <row r="44">
@@ -864,7 +864,7 @@
         <v>0.764630261982842</v>
       </c>
       <c r="C44">
-        <v>487465</v>
+        <v>483772</v>
       </c>
     </row>
     <row r="45">
@@ -875,7 +875,7 @@
         <v>0.766895860479494</v>
       </c>
       <c r="C45">
-        <v>490374</v>
+        <v>486674</v>
       </c>
     </row>
     <row r="46">
@@ -886,7 +886,7 @@
         <v>0.769312088590662</v>
       </c>
       <c r="C46">
-        <v>487849</v>
+        <v>484174</v>
       </c>
     </row>
     <row r="47">
@@ -897,7 +897,7 @@
         <v>0.771258196802401</v>
       </c>
       <c r="C47">
-        <v>484772</v>
+        <v>481126</v>
       </c>
     </row>
     <row r="48">
@@ -908,7 +908,7 @@
         <v>0.77364418344343</v>
       </c>
       <c r="C48">
-        <v>481170</v>
+        <v>477568</v>
       </c>
     </row>
     <row r="49">
@@ -919,7 +919,7 @@
         <v>0.77600074703924</v>
       </c>
       <c r="C49">
-        <v>478968</v>
+        <v>475420</v>
       </c>
     </row>
     <row r="50">
@@ -930,7 +930,7 @@
         <v>0.77828276718431</v>
       </c>
       <c r="C50">
-        <v>475807</v>
+        <v>472349</v>
       </c>
     </row>
     <row r="51">
@@ -941,7 +941,7 @@
         <v>0.78068440396891</v>
       </c>
       <c r="C51">
-        <v>473065</v>
+        <v>469703</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         <v>0.783334610079879</v>
       </c>
       <c r="C52">
-        <v>470127</v>
+        <v>466858</v>
       </c>
     </row>
     <row r="53">
@@ -963,7 +963,7 @@
         <v>0.785802322752966</v>
       </c>
       <c r="C53">
-        <v>467170</v>
+        <v>463973</v>
       </c>
     </row>
     <row r="54">
@@ -974,7 +974,7 @@
         <v>0.788266250034625</v>
       </c>
       <c r="C54">
-        <v>465583</v>
+        <v>462432</v>
       </c>
     </row>
     <row r="55">
@@ -985,7 +985,7 @@
         <v>0.790509273114842</v>
       </c>
       <c r="C55">
-        <v>464321</v>
+        <v>461186</v>
       </c>
     </row>
     <row r="56">
@@ -996,7 +996,7 @@
         <v>0.792258029509129</v>
       </c>
       <c r="C56">
-        <v>462541</v>
+        <v>459438</v>
       </c>
     </row>
     <row r="57">
@@ -1007,7 +1007,7 @@
         <v>0.794192352614683</v>
       </c>
       <c r="C57">
-        <v>461154</v>
+        <v>458035</v>
       </c>
     </row>
     <row r="58">
@@ -1018,7 +1018,7 @@
         <v>0.795982240280253</v>
       </c>
       <c r="C58">
-        <v>460105</v>
+        <v>456991</v>
       </c>
     </row>
     <row r="59">
@@ -1029,7 +1029,7 @@
         <v>0.797181363669466</v>
       </c>
       <c r="C59">
-        <v>458208</v>
+        <v>455089</v>
       </c>
     </row>
     <row r="60">
@@ -1040,7 +1040,7 @@
         <v>0.797876046496995</v>
       </c>
       <c r="C60">
-        <v>456960</v>
+        <v>453831</v>
       </c>
     </row>
     <row r="61">
@@ -1051,7 +1051,7 @@
         <v>0.798681267967168</v>
       </c>
       <c r="C61">
-        <v>455261</v>
+        <v>452130</v>
       </c>
     </row>
     <row r="62">
@@ -1062,7 +1062,7 @@
         <v>0.799593089959941</v>
       </c>
       <c r="C62">
-        <v>453612</v>
+        <v>450484</v>
       </c>
     </row>
     <row r="63">
@@ -1073,7 +1073,7 @@
         <v>0.800482625948866</v>
       </c>
       <c r="C63">
-        <v>451191</v>
+        <v>448088</v>
       </c>
     </row>
     <row r="64">
@@ -1084,7 +1084,7 @@
         <v>0.801089692368896</v>
       </c>
       <c r="C64">
-        <v>449360</v>
+        <v>446264</v>
       </c>
     </row>
     <row r="65">
@@ -1095,7 +1095,7 @@
         <v>0.801821939352248</v>
       </c>
       <c r="C65">
-        <v>447737</v>
+        <v>444658</v>
       </c>
     </row>
     <row r="66">
@@ -1106,7 +1106,7 @@
         <v>0.802408317954658</v>
       </c>
       <c r="C66">
-        <v>445541</v>
+        <v>442484</v>
       </c>
     </row>
     <row r="67">
@@ -1117,7 +1117,7 @@
         <v>0.803262242641387</v>
       </c>
       <c r="C67">
-        <v>444468</v>
+        <v>441436</v>
       </c>
     </row>
     <row r="68">
@@ -1128,7 +1128,7 @@
         <v>0.804082373576343</v>
       </c>
       <c r="C68">
-        <v>443990</v>
+        <v>440978</v>
       </c>
     </row>
     <row r="69">
@@ -1139,7 +1139,7 @@
         <v>0.804587911457111</v>
       </c>
       <c r="C69">
-        <v>443365</v>
+        <v>440375</v>
       </c>
     </row>
     <row r="70">
@@ -1150,7 +1150,7 @@
         <v>0.805127578697264</v>
       </c>
       <c r="C70">
-        <v>442504</v>
+        <v>439519</v>
       </c>
     </row>
     <row r="71">
@@ -1161,7 +1161,7 @@
         <v>0.80576813172081</v>
       </c>
       <c r="C71">
-        <v>442844</v>
+        <v>439851</v>
       </c>
     </row>
     <row r="72">
@@ -1172,7 +1172,7 @@
         <v>0.806553918154583</v>
       </c>
       <c r="C72">
-        <v>442965</v>
+        <v>439961</v>
       </c>
     </row>
     <row r="73">
@@ -1183,7 +1183,7 @@
         <v>0.806814479891823</v>
       </c>
       <c r="C73">
-        <v>443418</v>
+        <v>440411</v>
       </c>
     </row>
     <row r="74">
@@ -1194,7 +1194,7 @@
         <v>0.807055641758537</v>
       </c>
       <c r="C74">
-        <v>443729</v>
+        <v>440692</v>
       </c>
     </row>
     <row r="75">
@@ -1205,7 +1205,7 @@
         <v>0.807227008254926</v>
       </c>
       <c r="C75">
-        <v>444765</v>
+        <v>441701</v>
       </c>
     </row>
     <row r="76">
@@ -1216,7 +1216,7 @@
         <v>0.807220513131878</v>
       </c>
       <c r="C76">
-        <v>444636</v>
+        <v>441562</v>
       </c>
     </row>
     <row r="77">
@@ -1227,7 +1227,7 @@
         <v>0.807273269588932</v>
       </c>
       <c r="C77">
-        <v>444430</v>
+        <v>441348</v>
       </c>
     </row>
     <row r="78">
@@ -1238,7 +1238,7 @@
         <v>0.807355708864613</v>
       </c>
       <c r="C78">
-        <v>444025</v>
+        <v>440930</v>
       </c>
     </row>
     <row r="79">
@@ -1249,7 +1249,7 @@
         <v>0.807273069108599</v>
       </c>
       <c r="C79">
-        <v>443587</v>
+        <v>440496</v>
       </c>
     </row>
     <row r="80">
@@ -1260,7 +1260,7 @@
         <v>0.807290434611686</v>
       </c>
       <c r="C80">
-        <v>443197</v>
+        <v>440104</v>
       </c>
     </row>
     <row r="81">
@@ -1271,7 +1271,7 @@
         <v>0.807344577316146</v>
       </c>
       <c r="C81">
-        <v>442937</v>
+        <v>439860</v>
       </c>
     </row>
     <row r="82">
@@ -1282,7 +1282,7 @@
         <v>0.807410553523404</v>
       </c>
       <c r="C82">
-        <v>443034</v>
+        <v>439978</v>
       </c>
     </row>
     <row r="83">
@@ -1293,7 +1293,7 @@
         <v>0.807332160451642</v>
       </c>
       <c r="C83">
-        <v>442078</v>
+        <v>439024</v>
       </c>
     </row>
     <row r="84">
@@ -1304,7 +1304,7 @@
         <v>0.807067422771666</v>
       </c>
       <c r="C84">
-        <v>441923</v>
+        <v>438843</v>
       </c>
     </row>
     <row r="85">
@@ -1315,7 +1315,7 @@
         <v>0.807096852956208</v>
       </c>
       <c r="C85">
-        <v>441953</v>
+        <v>438839</v>
       </c>
     </row>
   </sheetData>
@@ -1795,19 +1795,19 @@
         <v>0.537995416921356</v>
       </c>
       <c r="G13">
-        <v>822472</v>
+        <v>818838</v>
       </c>
       <c r="H13">
-        <v>121527</v>
+        <v>120948</v>
       </c>
       <c r="I13">
-        <v>154084</v>
+        <v>153420</v>
       </c>
       <c r="J13">
-        <v>72390</v>
+        <v>72151</v>
       </c>
       <c r="K13">
-        <v>18477</v>
+        <v>18408</v>
       </c>
     </row>
     <row r="14">
@@ -1830,19 +1830,19 @@
         <v>0.540207557288202</v>
       </c>
       <c r="G14">
-        <v>819985</v>
+        <v>816364</v>
       </c>
       <c r="H14">
-        <v>121013</v>
+        <v>120443</v>
       </c>
       <c r="I14">
-        <v>154139</v>
+        <v>153488</v>
       </c>
       <c r="J14">
-        <v>72267</v>
+        <v>72038</v>
       </c>
       <c r="K14">
-        <v>18398</v>
+        <v>18325</v>
       </c>
     </row>
     <row r="15">
@@ -1865,19 +1865,19 @@
         <v>0.542671148492096</v>
       </c>
       <c r="G15">
-        <v>817248</v>
+        <v>813636</v>
       </c>
       <c r="H15">
-        <v>120450</v>
+        <v>119884</v>
       </c>
       <c r="I15">
-        <v>154177</v>
+        <v>153531</v>
       </c>
       <c r="J15">
-        <v>72260</v>
+        <v>72044</v>
       </c>
       <c r="K15">
-        <v>18285</v>
+        <v>18210</v>
       </c>
     </row>
     <row r="16">
@@ -1900,19 +1900,19 @@
         <v>0.544645276673262</v>
       </c>
       <c r="G16">
-        <v>814387</v>
+        <v>810806</v>
       </c>
       <c r="H16">
-        <v>120062</v>
+        <v>119496</v>
       </c>
       <c r="I16">
-        <v>154157</v>
+        <v>153518</v>
       </c>
       <c r="J16">
-        <v>72145</v>
+        <v>71933</v>
       </c>
       <c r="K16">
-        <v>18092</v>
+        <v>18017</v>
       </c>
     </row>
     <row r="17">
@@ -1935,19 +1935,19 @@
         <v>0.545258275589178</v>
       </c>
       <c r="G17">
-        <v>811432</v>
+        <v>807895</v>
       </c>
       <c r="H17">
-        <v>119722</v>
+        <v>119172</v>
       </c>
       <c r="I17">
-        <v>154068</v>
+        <v>153426</v>
       </c>
       <c r="J17">
-        <v>72138</v>
+        <v>71923</v>
       </c>
       <c r="K17">
-        <v>17936</v>
+        <v>17864</v>
       </c>
     </row>
     <row r="18">
@@ -1970,19 +1970,19 @@
         <v>0.54558204916991</v>
       </c>
       <c r="G18">
-        <v>808030</v>
+        <v>804508</v>
       </c>
       <c r="H18">
-        <v>119045</v>
+        <v>118510</v>
       </c>
       <c r="I18">
-        <v>153832</v>
+        <v>153192</v>
       </c>
       <c r="J18">
-        <v>72152</v>
+        <v>71934</v>
       </c>
       <c r="K18">
-        <v>17754</v>
+        <v>17684</v>
       </c>
     </row>
     <row r="19">
@@ -2005,19 +2005,19 @@
         <v>0.546101240625884</v>
       </c>
       <c r="G19">
-        <v>805103</v>
+        <v>801574</v>
       </c>
       <c r="H19">
-        <v>118631</v>
+        <v>118114</v>
       </c>
       <c r="I19">
-        <v>153702</v>
+        <v>153064</v>
       </c>
       <c r="J19">
-        <v>72184</v>
+        <v>71970</v>
       </c>
       <c r="K19">
-        <v>17609</v>
+        <v>17540</v>
       </c>
     </row>
     <row r="20">
@@ -2040,19 +2040,19 @@
         <v>0.548110965570241</v>
       </c>
       <c r="G20">
-        <v>802476</v>
+        <v>798970</v>
       </c>
       <c r="H20">
-        <v>118117</v>
+        <v>117613</v>
       </c>
       <c r="I20">
-        <v>153527</v>
+        <v>152893</v>
       </c>
       <c r="J20">
-        <v>72061</v>
+        <v>71851</v>
       </c>
       <c r="K20">
-        <v>17515</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="21">
@@ -2075,19 +2075,19 @@
         <v>0.549920543632668</v>
       </c>
       <c r="G21">
-        <v>800359</v>
+        <v>796867</v>
       </c>
       <c r="H21">
-        <v>117966</v>
+        <v>117468</v>
       </c>
       <c r="I21">
-        <v>153447</v>
+        <v>152807</v>
       </c>
       <c r="J21">
-        <v>71949</v>
+        <v>71753</v>
       </c>
       <c r="K21">
-        <v>17508</v>
+        <v>17436</v>
       </c>
     </row>
     <row r="22">
@@ -2110,19 +2110,19 @@
         <v>0.549932675769051</v>
       </c>
       <c r="G22">
-        <v>797702</v>
+        <v>794209</v>
       </c>
       <c r="H22">
-        <v>117644</v>
+        <v>117154</v>
       </c>
       <c r="I22">
-        <v>152859</v>
+        <v>152222</v>
       </c>
       <c r="J22">
-        <v>71599</v>
+        <v>71412</v>
       </c>
       <c r="K22">
-        <v>17500</v>
+        <v>17427</v>
       </c>
     </row>
     <row r="23">
@@ -2145,19 +2145,19 @@
         <v>0.548645163684151</v>
       </c>
       <c r="G23">
-        <v>795638</v>
+        <v>792171</v>
       </c>
       <c r="H23">
-        <v>117301</v>
+        <v>116825</v>
       </c>
       <c r="I23">
-        <v>152477</v>
+        <v>151840</v>
       </c>
       <c r="J23">
-        <v>71206</v>
+        <v>71022</v>
       </c>
       <c r="K23">
-        <v>17453</v>
+        <v>17381</v>
       </c>
     </row>
     <row r="24">
@@ -2180,19 +2180,19 @@
         <v>0.547504650415348</v>
       </c>
       <c r="G24">
-        <v>793852</v>
+        <v>790411</v>
       </c>
       <c r="H24">
-        <v>116921</v>
+        <v>116444</v>
       </c>
       <c r="I24">
-        <v>151967</v>
+        <v>151328</v>
       </c>
       <c r="J24">
-        <v>70906</v>
+        <v>70724</v>
       </c>
       <c r="K24">
-        <v>17419</v>
+        <v>17349</v>
       </c>
     </row>
     <row r="25">
@@ -2215,19 +2215,19 @@
         <v>0.547320900822014</v>
       </c>
       <c r="G25">
-        <v>792698</v>
+        <v>789277</v>
       </c>
       <c r="H25">
-        <v>116823</v>
+        <v>116334</v>
       </c>
       <c r="I25">
-        <v>151641</v>
+        <v>150996</v>
       </c>
       <c r="J25">
-        <v>70749</v>
+        <v>70570</v>
       </c>
       <c r="K25">
-        <v>17333</v>
+        <v>17266</v>
       </c>
     </row>
     <row r="26">
@@ -2250,19 +2250,19 @@
         <v>0.54634353672484</v>
       </c>
       <c r="G26">
-        <v>790857</v>
+        <v>787438</v>
       </c>
       <c r="H26">
-        <v>116527</v>
+        <v>116027</v>
       </c>
       <c r="I26">
-        <v>151206</v>
+        <v>150556</v>
       </c>
       <c r="J26">
-        <v>70608</v>
+        <v>70425</v>
       </c>
       <c r="K26">
-        <v>17279</v>
+        <v>17216</v>
       </c>
     </row>
     <row r="27">
@@ -2285,19 +2285,19 @@
         <v>0.545877727432891</v>
       </c>
       <c r="G27">
-        <v>789709</v>
+        <v>786278</v>
       </c>
       <c r="H27">
-        <v>116542</v>
+        <v>116035</v>
       </c>
       <c r="I27">
-        <v>151258</v>
+        <v>150607</v>
       </c>
       <c r="J27">
-        <v>70637</v>
+        <v>70445</v>
       </c>
       <c r="K27">
-        <v>17190</v>
+        <v>17128</v>
       </c>
     </row>
     <row r="28">
@@ -2320,19 +2320,19 @@
         <v>0.54305432733649</v>
       </c>
       <c r="G28">
-        <v>783443</v>
+        <v>780009</v>
       </c>
       <c r="H28">
-        <v>115383</v>
+        <v>114879</v>
       </c>
       <c r="I28">
-        <v>149366</v>
+        <v>148715</v>
       </c>
       <c r="J28">
-        <v>70138</v>
+        <v>69940</v>
       </c>
       <c r="K28">
-        <v>16970</v>
+        <v>16910</v>
       </c>
     </row>
     <row r="29">
@@ -2355,19 +2355,19 @@
         <v>0.534947017209021</v>
       </c>
       <c r="G29">
-        <v>774948</v>
+        <v>771541</v>
       </c>
       <c r="H29">
-        <v>113544</v>
+        <v>113042</v>
       </c>
       <c r="I29">
-        <v>146724</v>
+        <v>146077</v>
       </c>
       <c r="J29">
-        <v>69478</v>
+        <v>69277</v>
       </c>
       <c r="K29">
-        <v>16626</v>
+        <v>16569</v>
       </c>
     </row>
     <row r="30">
@@ -2390,19 +2390,19 @@
         <v>0.527569525752462</v>
       </c>
       <c r="G30">
-        <v>765931</v>
+        <v>762562</v>
       </c>
       <c r="H30">
-        <v>111688</v>
+        <v>111199</v>
       </c>
       <c r="I30">
-        <v>143689</v>
+        <v>143049</v>
       </c>
       <c r="J30">
-        <v>68656</v>
+        <v>68452</v>
       </c>
       <c r="K30">
-        <v>16223</v>
+        <v>16166</v>
       </c>
     </row>
     <row r="31">
@@ -2425,19 +2425,19 @@
         <v>0.523540528415678</v>
       </c>
       <c r="G31">
-        <v>754786</v>
+        <v>751504</v>
       </c>
       <c r="H31">
-        <v>109269</v>
+        <v>108798</v>
       </c>
       <c r="I31">
-        <v>140078</v>
+        <v>139450</v>
       </c>
       <c r="J31">
-        <v>67527</v>
+        <v>67323</v>
       </c>
       <c r="K31">
-        <v>15786</v>
+        <v>15732</v>
       </c>
     </row>
     <row r="32">
@@ -2460,19 +2460,19 @@
         <v>0.517444339216194</v>
       </c>
       <c r="G32">
-        <v>744910</v>
+        <v>741704</v>
       </c>
       <c r="H32">
-        <v>107068</v>
+        <v>106624</v>
       </c>
       <c r="I32">
-        <v>136991</v>
+        <v>136369</v>
       </c>
       <c r="J32">
-        <v>66567</v>
+        <v>66356</v>
       </c>
       <c r="K32">
-        <v>15383</v>
+        <v>15333</v>
       </c>
     </row>
     <row r="33">
@@ -2495,19 +2495,19 @@
         <v>0.51200041088854</v>
       </c>
       <c r="G33">
-        <v>736195</v>
+        <v>733046</v>
       </c>
       <c r="H33">
-        <v>105135</v>
+        <v>104709</v>
       </c>
       <c r="I33">
-        <v>134124</v>
+        <v>133510</v>
       </c>
       <c r="J33">
-        <v>65645</v>
+        <v>65425</v>
       </c>
       <c r="K33">
-        <v>14981</v>
+        <v>14932</v>
       </c>
     </row>
     <row r="34">
@@ -2530,19 +2530,19 @@
         <v>0.50869616165939</v>
       </c>
       <c r="G34">
-        <v>732529</v>
+        <v>729416</v>
       </c>
       <c r="H34">
-        <v>104599</v>
+        <v>104184</v>
       </c>
       <c r="I34">
-        <v>133355</v>
+        <v>132738</v>
       </c>
       <c r="J34">
-        <v>65306</v>
+        <v>65073</v>
       </c>
       <c r="K34">
-        <v>14810</v>
+        <v>14763</v>
       </c>
     </row>
     <row r="35">
@@ -2565,19 +2565,19 @@
         <v>0.504163230340151</v>
       </c>
       <c r="G35">
-        <v>729188</v>
+        <v>726119</v>
       </c>
       <c r="H35">
-        <v>104478</v>
+        <v>104065</v>
       </c>
       <c r="I35">
-        <v>133002</v>
+        <v>132384</v>
       </c>
       <c r="J35">
-        <v>65339</v>
+        <v>65096</v>
       </c>
       <c r="K35">
-        <v>14768</v>
+        <v>14722</v>
       </c>
     </row>
     <row r="36">
@@ -2600,19 +2600,19 @@
         <v>0.499225996685508</v>
       </c>
       <c r="G36">
-        <v>725215</v>
+        <v>722201</v>
       </c>
       <c r="H36">
-        <v>104462</v>
+        <v>104044</v>
       </c>
       <c r="I36">
-        <v>132424</v>
+        <v>131813</v>
       </c>
       <c r="J36">
-        <v>65156</v>
+        <v>64907</v>
       </c>
       <c r="K36">
-        <v>14590</v>
+        <v>14544</v>
       </c>
     </row>
     <row r="37">
@@ -2635,19 +2635,19 @@
         <v>0.49668619299556</v>
       </c>
       <c r="G37">
-        <v>719903</v>
+        <v>716932</v>
       </c>
       <c r="H37">
-        <v>104045</v>
+        <v>103632</v>
       </c>
       <c r="I37">
-        <v>131115</v>
+        <v>130509</v>
       </c>
       <c r="J37">
-        <v>64664</v>
+        <v>64405</v>
       </c>
       <c r="K37">
-        <v>14414</v>
+        <v>14367</v>
       </c>
     </row>
     <row r="38">
@@ -2670,19 +2670,19 @@
         <v>0.495485230516879</v>
       </c>
       <c r="G38">
-        <v>716105</v>
+        <v>713136</v>
       </c>
       <c r="H38">
-        <v>103909</v>
+        <v>103499</v>
       </c>
       <c r="I38">
-        <v>130253</v>
+        <v>129652</v>
       </c>
       <c r="J38">
-        <v>64336</v>
+        <v>64074</v>
       </c>
       <c r="K38">
-        <v>14303</v>
+        <v>14256</v>
       </c>
     </row>
     <row r="39">
@@ -2705,19 +2705,19 @@
         <v>0.493564674423183</v>
       </c>
       <c r="G39">
-        <v>711728</v>
+        <v>708739</v>
       </c>
       <c r="H39">
-        <v>103433</v>
+        <v>103016</v>
       </c>
       <c r="I39">
-        <v>129167</v>
+        <v>128562</v>
       </c>
       <c r="J39">
-        <v>63766</v>
+        <v>63502</v>
       </c>
       <c r="K39">
-        <v>14227</v>
+        <v>14179</v>
       </c>
     </row>
     <row r="40">
@@ -2740,19 +2740,19 @@
         <v>0.49325029357567</v>
       </c>
       <c r="G40">
-        <v>712324</v>
+        <v>709295</v>
       </c>
       <c r="H40">
-        <v>103990</v>
+        <v>103571</v>
       </c>
       <c r="I40">
-        <v>129984</v>
+        <v>129366</v>
       </c>
       <c r="J40">
-        <v>63746</v>
+        <v>63478</v>
       </c>
       <c r="K40">
-        <v>14337</v>
+        <v>14284</v>
       </c>
     </row>
     <row r="41">
@@ -2775,19 +2775,19 @@
         <v>0.498002785647169</v>
       </c>
       <c r="G41">
-        <v>715957</v>
+        <v>712866</v>
       </c>
       <c r="H41">
-        <v>105202</v>
+        <v>104777</v>
       </c>
       <c r="I41">
-        <v>131898</v>
+        <v>131269</v>
       </c>
       <c r="J41">
-        <v>64137</v>
+        <v>63870</v>
       </c>
       <c r="K41">
-        <v>14501</v>
+        <v>14443</v>
       </c>
     </row>
     <row r="42">
@@ -2810,19 +2810,19 @@
         <v>0.502113536840298</v>
       </c>
       <c r="G42">
-        <v>720526</v>
+        <v>717396</v>
       </c>
       <c r="H42">
-        <v>106715</v>
+        <v>106276</v>
       </c>
       <c r="I42">
-        <v>134320</v>
+        <v>133668</v>
       </c>
       <c r="J42">
-        <v>64771</v>
+        <v>64511</v>
       </c>
       <c r="K42">
-        <v>14701</v>
+        <v>14638</v>
       </c>
     </row>
     <row r="43">
@@ -2845,19 +2845,19 @@
         <v>0.505807603875098</v>
       </c>
       <c r="G43">
-        <v>725295</v>
+        <v>722137</v>
       </c>
       <c r="H43">
-        <v>108398</v>
+        <v>107957</v>
       </c>
       <c r="I43">
-        <v>136665</v>
+        <v>135997</v>
       </c>
       <c r="J43">
-        <v>65424</v>
+        <v>65167</v>
       </c>
       <c r="K43">
-        <v>14909</v>
+        <v>14842</v>
       </c>
     </row>
     <row r="44">
@@ -2880,19 +2880,19 @@
         <v>0.509657882587194</v>
       </c>
       <c r="G44">
-        <v>728610</v>
+        <v>725421</v>
       </c>
       <c r="H44">
-        <v>110065</v>
+        <v>109617</v>
       </c>
       <c r="I44">
-        <v>138959</v>
+        <v>138283</v>
       </c>
       <c r="J44">
-        <v>66196</v>
+        <v>65943</v>
       </c>
       <c r="K44">
-        <v>14999</v>
+        <v>14928</v>
       </c>
     </row>
     <row r="45">
@@ -2915,19 +2915,19 @@
         <v>0.511583576127931</v>
       </c>
       <c r="G45">
-        <v>730261</v>
+        <v>727072</v>
       </c>
       <c r="H45">
-        <v>111089</v>
+        <v>110634</v>
       </c>
       <c r="I45">
-        <v>140817</v>
+        <v>140139</v>
       </c>
       <c r="J45">
-        <v>66777</v>
+        <v>66526</v>
       </c>
       <c r="K45">
-        <v>14997</v>
+        <v>14928</v>
       </c>
     </row>
     <row r="46">
@@ -2950,19 +2950,19 @@
         <v>0.514095060005601</v>
       </c>
       <c r="G46">
-        <v>725621</v>
+        <v>722468</v>
       </c>
       <c r="H46">
-        <v>110443</v>
+        <v>109987</v>
       </c>
       <c r="I46">
-        <v>140486</v>
+        <v>139812</v>
       </c>
       <c r="J46">
-        <v>66740</v>
+        <v>66492</v>
       </c>
       <c r="K46">
-        <v>14785</v>
+        <v>14719</v>
       </c>
     </row>
     <row r="47">
@@ -2985,19 +2985,19 @@
         <v>0.518243770586095</v>
       </c>
       <c r="G47">
-        <v>720900</v>
+        <v>717787</v>
       </c>
       <c r="H47">
-        <v>109699</v>
+        <v>109240</v>
       </c>
       <c r="I47">
-        <v>139799</v>
+        <v>139142</v>
       </c>
       <c r="J47">
-        <v>66603</v>
+        <v>66355</v>
       </c>
       <c r="K47">
-        <v>14546</v>
+        <v>14482</v>
       </c>
     </row>
     <row r="48">
@@ -3020,19 +3020,19 @@
         <v>0.52266377447193</v>
       </c>
       <c r="G48">
-        <v>715364</v>
+        <v>712287</v>
       </c>
       <c r="H48">
-        <v>108630</v>
+        <v>108185</v>
       </c>
       <c r="I48">
-        <v>139096</v>
+        <v>138448</v>
       </c>
       <c r="J48">
-        <v>66384</v>
+        <v>66140</v>
       </c>
       <c r="K48">
-        <v>14386</v>
+        <v>14324</v>
       </c>
     </row>
     <row r="49">
@@ -3055,19 +3055,19 @@
         <v>0.523810219088589</v>
       </c>
       <c r="G49">
-        <v>710892</v>
+        <v>707858</v>
       </c>
       <c r="H49">
-        <v>108220</v>
+        <v>107781</v>
       </c>
       <c r="I49">
-        <v>138959</v>
+        <v>138322</v>
       </c>
       <c r="J49">
-        <v>66443</v>
+        <v>66204</v>
       </c>
       <c r="K49">
-        <v>14288</v>
+        <v>14229</v>
       </c>
     </row>
     <row r="50">
@@ -3090,19 +3090,19 @@
         <v>0.523791257588041</v>
       </c>
       <c r="G50">
-        <v>705881</v>
+        <v>702916</v>
       </c>
       <c r="H50">
-        <v>107513</v>
+        <v>107080</v>
       </c>
       <c r="I50">
-        <v>138616</v>
+        <v>137982</v>
       </c>
       <c r="J50">
-        <v>66406</v>
+        <v>66173</v>
       </c>
       <c r="K50">
-        <v>14148</v>
+        <v>14092</v>
       </c>
     </row>
     <row r="51">
@@ -3125,19 +3125,19 @@
         <v>0.525439520486734</v>
       </c>
       <c r="G51">
-        <v>701949</v>
+        <v>699069</v>
       </c>
       <c r="H51">
-        <v>106855</v>
+        <v>106428</v>
       </c>
       <c r="I51">
-        <v>138280</v>
+        <v>137647</v>
       </c>
       <c r="J51">
-        <v>66473</v>
+        <v>66244</v>
       </c>
       <c r="K51">
-        <v>14059</v>
+        <v>14007</v>
       </c>
     </row>
     <row r="52">
@@ -3160,19 +3160,19 @@
         <v>0.524907294023655</v>
       </c>
       <c r="G52">
-        <v>697850</v>
+        <v>695041</v>
       </c>
       <c r="H52">
-        <v>106253</v>
+        <v>105823</v>
       </c>
       <c r="I52">
-        <v>137832</v>
+        <v>137213</v>
       </c>
       <c r="J52">
-        <v>66394</v>
+        <v>66170</v>
       </c>
       <c r="K52">
-        <v>13949</v>
+        <v>13902</v>
       </c>
     </row>
     <row r="53">
@@ -3195,19 +3195,19 @@
         <v>0.526432912530333</v>
       </c>
       <c r="G53">
-        <v>693412</v>
+        <v>690672</v>
       </c>
       <c r="H53">
-        <v>105685</v>
+        <v>105260</v>
       </c>
       <c r="I53">
-        <v>137474</v>
+        <v>136870</v>
       </c>
       <c r="J53">
-        <v>66220</v>
+        <v>65992</v>
       </c>
       <c r="K53">
-        <v>13914</v>
+        <v>13871</v>
       </c>
     </row>
     <row r="54">
@@ -3230,19 +3230,19 @@
         <v>0.527090102897046</v>
       </c>
       <c r="G54">
-        <v>690728</v>
+        <v>688022</v>
       </c>
       <c r="H54">
-        <v>105169</v>
+        <v>104748</v>
       </c>
       <c r="I54">
-        <v>137298</v>
+        <v>136709</v>
       </c>
       <c r="J54">
-        <v>66202</v>
+        <v>65968</v>
       </c>
       <c r="K54">
-        <v>13934</v>
+        <v>13892</v>
       </c>
     </row>
     <row r="55">
@@ -3265,19 +3265,19 @@
         <v>0.526613620572505</v>
       </c>
       <c r="G55">
-        <v>688489</v>
+        <v>685792</v>
       </c>
       <c r="H55">
-        <v>104751</v>
+        <v>104327</v>
       </c>
       <c r="I55">
-        <v>137225</v>
+        <v>136644</v>
       </c>
       <c r="J55">
-        <v>66222</v>
+        <v>65980</v>
       </c>
       <c r="K55">
-        <v>13895</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="56">
@@ -3300,19 +3300,19 @@
         <v>0.52901127437037</v>
       </c>
       <c r="G56">
-        <v>686115</v>
+        <v>683442</v>
       </c>
       <c r="H56">
-        <v>104133</v>
+        <v>103709</v>
       </c>
       <c r="I56">
-        <v>136704</v>
+        <v>136130</v>
       </c>
       <c r="J56">
-        <v>66176</v>
+        <v>65932</v>
       </c>
       <c r="K56">
-        <v>13904</v>
+        <v>13870</v>
       </c>
     </row>
     <row r="57">
@@ -3335,19 +3335,19 @@
         <v>0.533361368773625</v>
       </c>
       <c r="G57">
-        <v>684110</v>
+        <v>681415</v>
       </c>
       <c r="H57">
-        <v>103704</v>
+        <v>103269</v>
       </c>
       <c r="I57">
-        <v>136574</v>
+        <v>135999</v>
       </c>
       <c r="J57">
-        <v>66194</v>
+        <v>65948</v>
       </c>
       <c r="K57">
-        <v>13936</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="58">
@@ -3370,19 +3370,19 @@
         <v>0.532927919411982</v>
       </c>
       <c r="G58">
-        <v>682347</v>
+        <v>679637</v>
       </c>
       <c r="H58">
-        <v>103465</v>
+        <v>103019</v>
       </c>
       <c r="I58">
-        <v>137056</v>
+        <v>136491</v>
       </c>
       <c r="J58">
-        <v>66261</v>
+        <v>66021</v>
       </c>
       <c r="K58">
-        <v>14009</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="59">
@@ -3405,19 +3405,19 @@
         <v>0.534143715578041</v>
       </c>
       <c r="G59">
-        <v>679459</v>
+        <v>676741</v>
       </c>
       <c r="H59">
-        <v>103055</v>
+        <v>102599</v>
       </c>
       <c r="I59">
-        <v>137170</v>
+        <v>136594</v>
       </c>
       <c r="J59">
-        <v>66140</v>
+        <v>65908</v>
       </c>
       <c r="K59">
-        <v>13984</v>
+        <v>13946</v>
       </c>
     </row>
     <row r="60">
@@ -3440,19 +3440,19 @@
         <v>0.532809684628543</v>
       </c>
       <c r="G60">
-        <v>677545</v>
+        <v>674843</v>
       </c>
       <c r="H60">
-        <v>102785</v>
+        <v>102314</v>
       </c>
       <c r="I60">
-        <v>137542</v>
+        <v>136955</v>
       </c>
       <c r="J60">
-        <v>66193</v>
+        <v>65961</v>
       </c>
       <c r="K60">
-        <v>13979</v>
+        <v>13939</v>
       </c>
     </row>
     <row r="61">
@@ -3475,19 +3475,19 @@
         <v>0.531396681079298</v>
       </c>
       <c r="G61">
-        <v>675681</v>
+        <v>673016</v>
       </c>
       <c r="H61">
-        <v>102123</v>
+        <v>101643</v>
       </c>
       <c r="I61">
-        <v>137778</v>
+        <v>137179</v>
       </c>
       <c r="J61">
-        <v>66173</v>
+        <v>65943</v>
       </c>
       <c r="K61">
-        <v>14017</v>
+        <v>13978</v>
       </c>
     </row>
     <row r="62">
@@ -3510,19 +3510,19 @@
         <v>0.533840551971075</v>
       </c>
       <c r="G62">
-        <v>674021</v>
+        <v>671383</v>
       </c>
       <c r="H62">
-        <v>101750</v>
+        <v>101271</v>
       </c>
       <c r="I62">
-        <v>137734</v>
+        <v>137125</v>
       </c>
       <c r="J62">
-        <v>66014</v>
+        <v>65784</v>
       </c>
       <c r="K62">
-        <v>14004</v>
+        <v>13965</v>
       </c>
     </row>
     <row r="63">
@@ -3545,19 +3545,19 @@
         <v>0.533060947780821</v>
       </c>
       <c r="G63">
-        <v>670799</v>
+        <v>668180</v>
       </c>
       <c r="H63">
-        <v>101294</v>
+        <v>100827</v>
       </c>
       <c r="I63">
-        <v>137547</v>
+        <v>136935</v>
       </c>
       <c r="J63">
-        <v>65689</v>
+        <v>65464</v>
       </c>
       <c r="K63">
-        <v>13924</v>
+        <v>13882</v>
       </c>
     </row>
     <row r="64">
@@ -3580,19 +3580,19 @@
         <v>0.537364917135131</v>
       </c>
       <c r="G64">
-        <v>668417</v>
+        <v>665818</v>
       </c>
       <c r="H64">
-        <v>100802</v>
+        <v>100346</v>
       </c>
       <c r="I64">
-        <v>137541</v>
+        <v>136921</v>
       </c>
       <c r="J64">
-        <v>65611</v>
+        <v>65386</v>
       </c>
       <c r="K64">
-        <v>13847</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="65">
@@ -3615,19 +3615,19 @@
         <v>0.53803495279345</v>
       </c>
       <c r="G65">
-        <v>666473</v>
+        <v>663899</v>
       </c>
       <c r="H65">
-        <v>100398</v>
+        <v>99944</v>
       </c>
       <c r="I65">
-        <v>137379</v>
+        <v>136753</v>
       </c>
       <c r="J65">
-        <v>65444</v>
+        <v>65217</v>
       </c>
       <c r="K65">
-        <v>13817</v>
+        <v>13773</v>
       </c>
     </row>
     <row r="66">
@@ -3650,19 +3650,19 @@
         <v>0.538623949625703</v>
       </c>
       <c r="G66">
-        <v>664064</v>
+        <v>661521</v>
       </c>
       <c r="H66">
-        <v>99840</v>
+        <v>99384</v>
       </c>
       <c r="I66">
-        <v>137313</v>
+        <v>136676</v>
       </c>
       <c r="J66">
-        <v>65130</v>
+        <v>64898</v>
       </c>
       <c r="K66">
-        <v>13740</v>
+        <v>13701</v>
       </c>
     </row>
     <row r="67">
@@ -3685,19 +3685,19 @@
         <v>0.537711077805913</v>
       </c>
       <c r="G67">
-        <v>662658</v>
+        <v>660150</v>
       </c>
       <c r="H67">
-        <v>99518</v>
+        <v>99062</v>
       </c>
       <c r="I67">
-        <v>137672</v>
+        <v>137032</v>
       </c>
       <c r="J67">
-        <v>65051</v>
+        <v>64819</v>
       </c>
       <c r="K67">
-        <v>13786</v>
+        <v>13748</v>
       </c>
     </row>
     <row r="68">
@@ -3720,19 +3720,19 @@
         <v>0.535598307804785</v>
       </c>
       <c r="G68">
-        <v>661979</v>
+        <v>659484</v>
       </c>
       <c r="H68">
-        <v>99357</v>
+        <v>98903</v>
       </c>
       <c r="I68">
-        <v>138243</v>
+        <v>137607</v>
       </c>
       <c r="J68">
-        <v>64993</v>
+        <v>64766</v>
       </c>
       <c r="K68">
-        <v>13821</v>
+        <v>13785</v>
       </c>
     </row>
     <row r="69">
@@ -3755,19 +3755,19 @@
         <v>0.531059445979119</v>
       </c>
       <c r="G69">
-        <v>661058</v>
+        <v>658585</v>
       </c>
       <c r="H69">
-        <v>99085</v>
+        <v>98637</v>
       </c>
       <c r="I69">
-        <v>138943</v>
+        <v>138317</v>
       </c>
       <c r="J69">
-        <v>64929</v>
+        <v>64706</v>
       </c>
       <c r="K69">
-        <v>13806</v>
+        <v>13773</v>
       </c>
     </row>
     <row r="70">
@@ -3790,19 +3790,19 @@
         <v>0.531518982379305</v>
       </c>
       <c r="G70">
-        <v>660069</v>
+        <v>657608</v>
       </c>
       <c r="H70">
-        <v>98818</v>
+        <v>98379</v>
       </c>
       <c r="I70">
-        <v>139117</v>
+        <v>138496</v>
       </c>
       <c r="J70">
-        <v>64868</v>
+        <v>64641</v>
       </c>
       <c r="K70">
-        <v>13791</v>
+        <v>13757</v>
       </c>
     </row>
     <row r="71">
@@ -3825,19 +3825,19 @@
         <v>0.529971947908898</v>
       </c>
       <c r="G71">
-        <v>660513</v>
+        <v>658048</v>
       </c>
       <c r="H71">
-        <v>98775</v>
+        <v>98344</v>
       </c>
       <c r="I71">
-        <v>139696</v>
+        <v>139082</v>
       </c>
       <c r="J71">
-        <v>64942</v>
+        <v>64711</v>
       </c>
       <c r="K71">
-        <v>13851</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="72">
@@ -3860,19 +3860,19 @@
         <v>0.530281208600445</v>
       </c>
       <c r="G72">
-        <v>660496</v>
+        <v>658015</v>
       </c>
       <c r="H72">
-        <v>98585</v>
+        <v>98164</v>
       </c>
       <c r="I72">
-        <v>140153</v>
+        <v>139547</v>
       </c>
       <c r="J72">
-        <v>64979</v>
+        <v>64746</v>
       </c>
       <c r="K72">
-        <v>13874</v>
+        <v>13835</v>
       </c>
     </row>
     <row r="73">
@@ -3895,19 +3895,19 @@
         <v>0.533561299271043</v>
       </c>
       <c r="G73">
-        <v>660593</v>
+        <v>658097</v>
       </c>
       <c r="H73">
-        <v>98396</v>
+        <v>97975</v>
       </c>
       <c r="I73">
-        <v>140541</v>
+        <v>139941</v>
       </c>
       <c r="J73">
-        <v>65218</v>
+        <v>64985</v>
       </c>
       <c r="K73">
-        <v>13945</v>
+        <v>13902</v>
       </c>
     </row>
     <row r="74">
@@ -3930,19 +3930,19 @@
         <v>0.535258359582033</v>
       </c>
       <c r="G74">
-        <v>660503</v>
+        <v>657981</v>
       </c>
       <c r="H74">
-        <v>98061</v>
+        <v>97639</v>
       </c>
       <c r="I74">
-        <v>140903</v>
+        <v>140309</v>
       </c>
       <c r="J74">
-        <v>65414</v>
+        <v>65180</v>
       </c>
       <c r="K74">
-        <v>13969</v>
+        <v>13924</v>
       </c>
     </row>
     <row r="75">
@@ -3965,19 +3965,19 @@
         <v>0.53857998681371</v>
       </c>
       <c r="G75">
-        <v>661659</v>
+        <v>659124</v>
       </c>
       <c r="H75">
-        <v>97915</v>
+        <v>97489</v>
       </c>
       <c r="I75">
-        <v>141534</v>
+        <v>140942</v>
       </c>
       <c r="J75">
-        <v>65673</v>
+        <v>65433</v>
       </c>
       <c r="K75">
-        <v>14018</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="76">
@@ -4000,19 +4000,19 @@
         <v>0.538960983872935</v>
       </c>
       <c r="G76">
-        <v>660994</v>
+        <v>658452</v>
       </c>
       <c r="H76">
-        <v>97648</v>
+        <v>97216</v>
       </c>
       <c r="I76">
-        <v>141959</v>
+        <v>141365</v>
       </c>
       <c r="J76">
-        <v>65805</v>
+        <v>65562</v>
       </c>
       <c r="K76">
-        <v>14006</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="77">
@@ -4035,19 +4035,19 @@
         <v>0.539920279194758</v>
       </c>
       <c r="G77">
-        <v>660396</v>
+        <v>657849</v>
       </c>
       <c r="H77">
-        <v>97367</v>
+        <v>96935</v>
       </c>
       <c r="I77">
-        <v>142477</v>
+        <v>141880</v>
       </c>
       <c r="J77">
-        <v>65986</v>
+        <v>65748</v>
       </c>
       <c r="K77">
-        <v>13941</v>
+        <v>13896</v>
       </c>
     </row>
     <row r="78">
@@ -4070,19 +4070,19 @@
         <v>0.539185097483971</v>
       </c>
       <c r="G78">
-        <v>659212</v>
+        <v>656650</v>
       </c>
       <c r="H78">
-        <v>97244</v>
+        <v>96812</v>
       </c>
       <c r="I78">
-        <v>143190</v>
+        <v>142606</v>
       </c>
       <c r="J78">
-        <v>66130</v>
+        <v>65897</v>
       </c>
       <c r="K78">
-        <v>13889</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="79">
@@ -4105,19 +4105,19 @@
         <v>0.538896219420875</v>
       </c>
       <c r="G79">
-        <v>658104</v>
+        <v>655534</v>
       </c>
       <c r="H79">
-        <v>96988</v>
+        <v>96565</v>
       </c>
       <c r="I79">
-        <v>143778</v>
+        <v>143198</v>
       </c>
       <c r="J79">
-        <v>66097</v>
+        <v>65865</v>
       </c>
       <c r="K79">
-        <v>13784</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="80">
@@ -4140,19 +4140,19 @@
         <v>0.536093823959673</v>
       </c>
       <c r="G80">
-        <v>656754</v>
+        <v>654193</v>
       </c>
       <c r="H80">
-        <v>96999</v>
+        <v>96569</v>
       </c>
       <c r="I80">
-        <v>144460</v>
+        <v>143884</v>
       </c>
       <c r="J80">
-        <v>66094</v>
+        <v>65858</v>
       </c>
       <c r="K80">
-        <v>13729</v>
+        <v>13681</v>
       </c>
     </row>
     <row r="81">
@@ -4175,19 +4175,19 @@
         <v>0.539302738727633</v>
       </c>
       <c r="G81">
-        <v>655372</v>
+        <v>652827</v>
       </c>
       <c r="H81">
-        <v>97112</v>
+        <v>96682</v>
       </c>
       <c r="I81">
-        <v>144835</v>
+        <v>144267</v>
       </c>
       <c r="J81">
-        <v>66133</v>
+        <v>65898</v>
       </c>
       <c r="K81">
-        <v>13713</v>
+        <v>13666</v>
       </c>
     </row>
     <row r="82">
@@ -4210,19 +4210,19 @@
         <v>0.541391050209338</v>
       </c>
       <c r="G82">
-        <v>655030</v>
+        <v>652508</v>
       </c>
       <c r="H82">
-        <v>96985</v>
+        <v>96555</v>
       </c>
       <c r="I82">
-        <v>145162</v>
+        <v>144589</v>
       </c>
       <c r="J82">
-        <v>66400</v>
+        <v>66175</v>
       </c>
       <c r="K82">
-        <v>13659</v>
+        <v>13614</v>
       </c>
     </row>
     <row r="83">
@@ -4245,19 +4245,19 @@
         <v>0.544462124173008</v>
       </c>
       <c r="G83">
-        <v>653616</v>
+        <v>651105</v>
       </c>
       <c r="H83">
-        <v>96511</v>
+        <v>96082</v>
       </c>
       <c r="I83">
-        <v>145157</v>
+        <v>144575</v>
       </c>
       <c r="J83">
-        <v>66534</v>
+        <v>66314</v>
       </c>
       <c r="K83">
-        <v>13585</v>
+        <v>13543</v>
       </c>
     </row>
     <row r="84">
@@ -4280,19 +4280,19 @@
         <v>0.547890400907095</v>
       </c>
       <c r="G84">
-        <v>653306</v>
+        <v>650785</v>
       </c>
       <c r="H84">
-        <v>96175</v>
+        <v>95741</v>
       </c>
       <c r="I84">
-        <v>145346</v>
+        <v>144755</v>
       </c>
       <c r="J84">
-        <v>66710</v>
+        <v>66501</v>
       </c>
       <c r="K84">
-        <v>13558</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="85">
@@ -4315,19 +4315,19 @@
         <v>0.549379158829956</v>
       </c>
       <c r="G85">
-        <v>652987</v>
+        <v>650451</v>
       </c>
       <c r="H85">
-        <v>96008</v>
+        <v>95569</v>
       </c>
       <c r="I85">
-        <v>145826</v>
+        <v>145225</v>
       </c>
       <c r="J85">
-        <v>66724</v>
+        <v>66523</v>
       </c>
       <c r="K85">
-        <v>13478</v>
+        <v>13437</v>
       </c>
     </row>
   </sheetData>
